--- a/Documents/学习任务.xlsx
+++ b/Documents/学习任务.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>WCF</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>项目管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -501,6 +505,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
